--- a/projects/valuation/def/TDATA/MessageTests/MSGG/ImportPortfolioExcel/MSGD/PortfolioMostRecentString/test-PortfolioMostRecentString/TradePortfolio18-05-17v2-NPV-Errors.xlsx
+++ b/projects/valuation/def/TDATA/MessageTests/MSGG/ImportPortfolioExcel/MSGD/PortfolioMostRecentString/test-PortfolioMostRecentString/TradePortfolio18-05-17v2-NPV-Errors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IRS-Cleared" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="288">
   <si>
     <t xml:space="preserve">Value Date</t>
   </si>
@@ -298,6 +298,9 @@
     <t xml:space="preserve">p32</t>
   </si>
   <si>
+    <t xml:space="preserve">whoopsiedaisy</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACUOUK2046</t>
   </si>
   <si>
@@ -584,6 +587,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">455139</t>
@@ -1265,7 +1271,7 @@
   <dimension ref="A1:BE12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,7 +1325,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="11.88"/>
@@ -1819,20 +1825,20 @@
       <c r="BE3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>41631</v>
+      <c r="A4" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>40882</v>
@@ -1847,16 +1853,16 @@
         <v>59</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>999</v>
@@ -1868,7 +1874,7 @@
         <v>72</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>66</v>
@@ -1877,13 +1883,13 @@
         <v>67</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W4" s="0" t="s">
         <v>66</v>
@@ -1904,7 +1910,7 @@
         <v>72</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE4" s="0" t="s">
         <v>88</v>
@@ -1913,13 +1919,13 @@
         <v>67</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ4" s="0" t="s">
         <v>88</v>
@@ -1955,7 +1961,7 @@
         <v>79</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW4" s="0" t="n">
         <v>13376</v>
@@ -1989,16 +1995,16 @@
         <v>41631</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>40882</v>
@@ -2013,16 +2019,16 @@
         <v>59</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>999</v>
@@ -2034,7 +2040,7 @@
         <v>72</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>66</v>
@@ -2043,16 +2049,16 @@
         <v>67</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X5" s="0" t="s">
         <v>66</v>
@@ -2070,7 +2076,7 @@
         <v>72</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE5" s="0" t="s">
         <v>88</v>
@@ -2079,13 +2085,13 @@
         <v>67</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ5" s="0" t="s">
         <v>88</v>
@@ -2155,16 +2161,16 @@
         <v>41631</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>41605</v>
@@ -2179,16 +2185,16 @@
         <v>59</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>999</v>
@@ -2200,7 +2206,7 @@
         <v>72</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>66</v>
@@ -2209,19 +2215,19 @@
         <v>67</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U6" s="0" t="s">
         <v>69</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W6" s="0" t="s">
         <v>88</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="2" t="n">
         <v>41605</v>
@@ -2236,7 +2242,7 @@
         <v>72</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>88</v>
@@ -2245,13 +2251,13 @@
         <v>67</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH6" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ6" s="0" t="s">
         <v>88</v>
@@ -2275,19 +2281,19 @@
         <v>75</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AW6" s="0" t="n">
         <v>20859.9</v>
@@ -2321,16 +2327,16 @@
         <v>41631</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>41605</v>
@@ -2348,13 +2354,13 @@
         <v>42366</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>999</v>
@@ -2366,7 +2372,7 @@
         <v>72</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>66</v>
@@ -2375,13 +2381,13 @@
         <v>67</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U7" s="0" t="s">
         <v>69</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W7" s="0" t="s">
         <v>66</v>
@@ -2402,7 +2408,7 @@
         <v>72</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE7" s="0" t="s">
         <v>88</v>
@@ -2411,13 +2417,13 @@
         <v>67</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH7" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ7" s="0" t="s">
         <v>88</v>
@@ -2453,7 +2459,7 @@
         <v>79</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW7" s="0" t="n">
         <v>-20859.9</v>
@@ -2487,16 +2493,16 @@
         <v>41631</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>41611</v>
@@ -2511,16 +2517,16 @@
         <v>59</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>999</v>
@@ -2532,7 +2538,7 @@
         <v>72</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>66</v>
@@ -2541,16 +2547,16 @@
         <v>67</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U8" s="0" t="s">
         <v>69</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X8" s="0" t="s">
         <v>66</v>
@@ -2568,7 +2574,7 @@
         <v>72</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE8" s="0" t="s">
         <v>88</v>
@@ -2577,13 +2583,13 @@
         <v>67</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH8" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ8" s="0" t="s">
         <v>88</v>
@@ -2659,10 +2665,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>41248</v>
@@ -2698,7 +2704,7 @@
         <v>72</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>66</v>
@@ -2707,13 +2713,13 @@
         <v>67</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W9" s="0" t="s">
         <v>66</v>
@@ -2728,13 +2734,13 @@
         <v>44900</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC9" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE9" s="0" t="s">
         <v>88</v>
@@ -2743,13 +2749,13 @@
         <v>67</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ9" s="0" t="s">
         <v>88</v>
@@ -2764,7 +2770,7 @@
         <v>44900</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP9" s="0" t="s">
         <v>75</v>
@@ -2773,19 +2779,19 @@
         <v>74</v>
       </c>
       <c r="AR9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AW9" s="0" t="n">
         <v>-7668</v>
@@ -2819,16 +2825,16 @@
         <v>41628</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>41248</v>
@@ -2864,7 +2870,7 @@
         <v>72</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>66</v>
@@ -2873,19 +2879,19 @@
         <v>67</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>88</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y10" s="2" t="n">
         <v>41248</v>
@@ -2894,13 +2900,13 @@
         <v>44900</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC10" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE10" s="0" t="s">
         <v>88</v>
@@ -2909,13 +2915,13 @@
         <v>67</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ10" s="0" t="s">
         <v>88</v>
@@ -2930,7 +2936,7 @@
         <v>44900</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP10" s="0" t="s">
         <v>74</v>
@@ -2939,19 +2945,19 @@
         <v>75</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AS10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AW10" s="0" t="n">
         <v>7668</v>
@@ -2991,10 +2997,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>40890</v>
@@ -3009,16 +3015,16 @@
         <v>59</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>999</v>
@@ -3030,7 +3036,7 @@
         <v>65</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>66</v>
@@ -3039,7 +3045,7 @@
         <v>67</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U11" s="0" t="s">
         <v>69</v>
@@ -3051,16 +3057,16 @@
         <v>44543</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AC11" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AE11" s="0" t="s">
         <v>66</v>
@@ -3069,13 +3075,13 @@
         <v>67</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AH11" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ11" s="0" t="s">
         <v>88</v>
@@ -3090,7 +3096,7 @@
         <v>44543</v>
       </c>
       <c r="AN11" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP11" s="0" t="s">
         <v>75</v>
@@ -3099,19 +3105,19 @@
         <v>74</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AW11" s="0" t="n">
         <v>140125.2</v>
@@ -3145,16 +3151,16 @@
         <v>41631</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>41409</v>
@@ -3169,16 +3175,16 @@
         <v>59</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>999</v>
@@ -3190,7 +3196,7 @@
         <v>65</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>66</v>
@@ -3199,10 +3205,10 @@
         <v>67</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y12" s="2" t="n">
         <v>41409</v>
@@ -3211,16 +3217,16 @@
         <v>43235</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC12" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE12" s="0" t="s">
         <v>66</v>
@@ -3229,13 +3235,13 @@
         <v>67</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AJ12" s="0" t="s">
         <v>66</v>
@@ -3250,7 +3256,7 @@
         <v>43235</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP12" s="0" t="s">
         <v>74</v>
@@ -3259,19 +3265,19 @@
         <v>75</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS12" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AW12" s="0" t="n">
         <v>147653.43</v>
@@ -3318,8 +3324,8 @@
   </sheetPr>
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3333,7 +3339,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.67"/>
@@ -3396,7 +3402,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>9</v>
@@ -3450,13 +3456,13 @@
         <v>27</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AE1" s="0" t="s">
         <v>43</v>
@@ -3506,10 +3512,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>42412</v>
@@ -3527,16 +3533,16 @@
         <v>75</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>999</v>
@@ -3545,22 +3551,22 @@
         <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U2" s="0" t="s">
         <v>69</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W2" s="0" t="s">
         <v>66</v>
@@ -3572,10 +3578,10 @@
         <v>41863</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB2" s="2" t="n">
         <v>41863</v>
@@ -3587,7 +3593,7 @@
         <v>78</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="0" t="s">
         <v>77</v>
@@ -3639,10 +3645,10 @@
         <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>42427</v>
@@ -3663,13 +3669,13 @@
         <v>84</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>999</v>
@@ -3678,22 +3684,22 @@
         <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U3" s="0" t="s">
         <v>69</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W3" s="0" t="s">
         <v>88</v>
@@ -3705,10 +3711,10 @@
         <v>41786</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB3" s="2" t="n">
         <v>41697</v>
@@ -3720,7 +3726,7 @@
         <v>78</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF3" s="0" t="s">
         <v>77</v>
@@ -3762,20 +3768,20 @@
       <c r="AR3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>41628</v>
+      <c r="A4" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>42540</v>
@@ -3811,22 +3817,22 @@
         <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W4" s="0" t="s">
         <v>66</v>
@@ -3838,10 +3844,10 @@
         <v>41992</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB4" s="2" t="n">
         <v>41809</v>
@@ -3853,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF4" s="0" t="s">
         <v>77</v>
@@ -3865,7 +3871,7 @@
         <v>79</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ4" s="0" t="n">
         <v>4091</v>
@@ -3899,16 +3905,16 @@
         <v>41631</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>42569</v>
@@ -3926,16 +3932,16 @@
         <v>75</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>999</v>
@@ -3944,25 +3950,25 @@
         <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>67</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X5" s="2" t="n">
         <v>41838</v>
@@ -3971,10 +3977,10 @@
         <v>42205</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>42205</v>
@@ -3983,22 +3989,22 @@
         <v>41836</v>
       </c>
       <c r="AD5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF5" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="AE5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="AG5" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AJ5" s="0" t="n">
         <v>-264415.99</v>
@@ -4142,7 +4148,7 @@
   <dimension ref="A1:BF8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4335,7 +4341,7 @@
         <v>42</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AS1" s="0" t="s">
         <v>43</v>
@@ -4385,10 +4391,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>42518</v>
@@ -4403,40 +4409,40 @@
         <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>999</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>65</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T2" s="0" t="s">
         <v>67</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y2" s="2" t="n">
         <v>42518</v>
@@ -4448,34 +4454,34 @@
         <v>70</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC2" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL2" s="2" t="n">
         <v>42518</v>
@@ -4496,7 +4502,7 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT2" s="0" t="s">
         <v>77</v>
@@ -4548,10 +4554,10 @@
         <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>42518</v>
@@ -4566,40 +4572,40 @@
         <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>999</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>65</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T3" s="0" t="s">
         <v>67</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y3" s="2" t="n">
         <v>42518</v>
@@ -4611,34 +4617,34 @@
         <v>70</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG3" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL3" s="2" t="n">
         <v>42518</v>
@@ -4659,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT3" s="0" t="s">
         <v>77</v>
@@ -4701,20 +4707,20 @@
       <c r="BF3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>41631</v>
+      <c r="A4" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>42518</v>
@@ -4729,37 +4735,37 @@
         <v>59</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>999</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>65</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T4" s="0" t="s">
         <v>67</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>69</v>
@@ -4774,34 +4780,34 @@
         <v>70</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC4" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG4" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL4" s="2" t="n">
         <v>42518</v>
@@ -4822,7 +4828,7 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT4" s="0" t="s">
         <v>77</v>
@@ -4834,7 +4840,7 @@
         <v>79</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AX4" s="0" t="n">
         <v>62866.02</v>
@@ -4868,16 +4874,16 @@
         <v>41628</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>42341</v>
@@ -4892,7 +4898,7 @@
         <v>59</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>-557</v>
@@ -4907,22 +4913,22 @@
         <v>999</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>65</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>67</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>69</v>
@@ -4937,34 +4943,34 @@
         <v>70</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AC5" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG5" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AI5" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL5" s="2" t="n">
         <v>42341</v>
@@ -4982,22 +4988,22 @@
         <v>75</v>
       </c>
       <c r="AR5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT5" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT5" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="AU5" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AX5" s="0" t="n">
         <v>-542</v>
@@ -5031,16 +5037,16 @@
         <v>41631</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>42709</v>
@@ -5055,40 +5061,40 @@
         <v>59</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>999</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>65</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T6" s="0" t="s">
         <v>67</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y6" s="2" t="n">
         <v>42709</v>
@@ -5100,34 +5106,34 @@
         <v>70</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AC6" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG6" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL6" s="2" t="n">
         <v>42709</v>
@@ -5145,22 +5151,22 @@
         <v>74</v>
       </c>
       <c r="AR6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="AS6" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT6" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="AU6" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AX6" s="0" t="n">
         <v>-88565.01</v>
@@ -5194,16 +5200,16 @@
         <v>41631</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>42518</v>
@@ -5218,40 +5224,40 @@
         <v>59</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>999</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>65</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>67</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y7" s="2" t="n">
         <v>42518</v>
@@ -5263,34 +5269,34 @@
         <v>70</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC7" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG7" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL7" s="2" t="n">
         <v>42518</v>
@@ -5311,7 +5317,7 @@
         <v>78</v>
       </c>
       <c r="AS7" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT7" s="0" t="s">
         <v>77</v>
@@ -5323,7 +5329,7 @@
         <v>79</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AX7" s="0" t="n">
         <v>228013.18</v>
@@ -5462,8 +5468,8 @@
   </sheetPr>
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5507,7 +5513,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="15.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="0" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10.53"/>
@@ -5637,10 +5643,10 @@
         <v>42</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AQ1" s="0" t="s">
         <v>47</v>
@@ -5663,10 +5669,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>41686</v>
@@ -5678,7 +5684,7 @@
         <v>41970</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>60</v>
@@ -5687,13 +5693,13 @@
         <v>999</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>66</v>
@@ -5702,7 +5708,7 @@
         <v>67</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>69</v>
@@ -5717,34 +5723,34 @@
         <v>70</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z2" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AC2" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI2" s="2" t="n">
         <v>41686</v>
@@ -5762,16 +5768,16 @@
         <v>75</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AS2" s="0" t="n">
         <v>10000000</v>
@@ -5788,10 +5794,10 @@
         <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>41686</v>
@@ -5803,22 +5809,22 @@
         <v>41970</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>999</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>66</v>
@@ -5827,7 +5833,7 @@
         <v>67</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>69</v>
@@ -5842,13 +5848,13 @@
         <v>70</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Z3" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AB3" s="0" t="s">
         <v>88</v>
@@ -5857,19 +5863,19 @@
         <v>67</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI3" s="2" t="n">
         <v>41686</v>
@@ -5887,16 +5893,16 @@
         <v>74</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AS3" s="0" t="n">
         <v>10000000</v>
@@ -5907,16 +5913,16 @@
         <v>41631</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>41686</v>
@@ -5928,22 +5934,22 @@
         <v>41970</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>999</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>88</v>
@@ -5952,7 +5958,7 @@
         <v>67</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>69</v>
@@ -5967,34 +5973,34 @@
         <v>70</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z4" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC4" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AE4" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AI4" s="2" t="n">
         <v>41686</v>
@@ -6012,16 +6018,16 @@
         <v>75</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AS4" s="0" t="n">
         <v>10000000</v>
@@ -6032,16 +6038,16 @@
         <v>41631</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>41686</v>
@@ -6053,22 +6059,22 @@
         <v>41970</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>999</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>88</v>
@@ -6077,7 +6083,7 @@
         <v>67</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>69</v>
@@ -6092,13 +6098,13 @@
         <v>70</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z5" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AB5" s="0" t="s">
         <v>66</v>
@@ -6107,19 +6113,19 @@
         <v>67</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AE5" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AI5" s="2" t="n">
         <v>41686</v>
@@ -6137,36 +6143,36 @@
         <v>75</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AR5" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AS5" s="0" t="n">
         <v>10000000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>41631</v>
+      <c r="A6" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>41686</v>
@@ -6178,22 +6184,22 @@
         <v>41970</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>999</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>66</v>
@@ -6202,7 +6208,7 @@
         <v>67</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>69</v>
@@ -6217,13 +6223,13 @@
         <v>70</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AB6" s="0" t="s">
         <v>88</v>
@@ -6232,19 +6238,19 @@
         <v>67</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AI6" s="2" t="n">
         <v>41686</v>
@@ -6262,16 +6268,16 @@
         <v>74</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AS6" s="0" t="n">
         <v>10000000</v>
@@ -6282,16 +6288,16 @@
         <v>41631</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>41686</v>
@@ -6303,22 +6309,22 @@
         <v>41970</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>999</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>66</v>
@@ -6327,7 +6333,7 @@
         <v>67</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>69</v>
@@ -6342,34 +6348,34 @@
         <v>70</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Z7" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC7" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AE7" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AI7" s="2" t="n">
         <v>41686</v>
@@ -6387,16 +6393,16 @@
         <v>75</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AS7" s="0" t="n">
         <v>10000000</v>
@@ -6407,16 +6413,16 @@
         <v>41631</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>41607</v>
@@ -6428,22 +6434,22 @@
         <v>41605</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>999</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>65</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>88</v>
@@ -6452,7 +6458,7 @@
         <v>67</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>69</v>
@@ -6467,13 +6473,13 @@
         <v>70</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z8" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AB8" s="0" t="s">
         <v>88</v>
@@ -6482,13 +6488,13 @@
         <v>67</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AE8" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG8" s="0" t="s">
         <v>88</v>
@@ -6512,16 +6518,16 @@
         <v>75</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AQ8" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AR8" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AS8" s="0" t="n">
         <v>10000000</v>
